--- a/2021-08 Victoria Outbreak Paths.xlsx
+++ b/2021-08 Victoria Outbreak Paths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9743D183-232C-4E9B-9D75-60B5055B91D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8780FE78-B398-465B-A1F5-0BD01C53BC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{8B28EB55-7BE8-4063-B90C-990630ADF328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="329">
   <si>
     <t>Source</t>
   </si>
@@ -208,48 +208,27 @@
     <t>H18</t>
   </si>
   <si>
-    <t>#d8d8ec</t>
-  </si>
-  <si>
-    <t>#c2c2e0</t>
-  </si>
-  <si>
     <t>H19</t>
   </si>
   <si>
-    <t>#f9f9fc</t>
-  </si>
-  <si>
     <t>#f4f4f9</t>
   </si>
   <si>
-    <t>#eeeef7</t>
-  </si>
-  <si>
     <t>#e9e8f4</t>
   </si>
   <si>
-    <t>#e3e3f1</t>
-  </si>
-  <si>
     <t>#deddee</t>
   </si>
   <si>
     <t>#d3d2e9</t>
   </si>
   <si>
-    <t>#cdcde6</t>
-  </si>
-  <si>
     <t>#c8c7e3</t>
   </si>
   <si>
     <t>#bdbdde</t>
   </si>
   <si>
-    <t>#b7b7db</t>
-  </si>
-  <si>
     <t>H1</t>
   </si>
   <si>
@@ -739,9 +718,6 @@
     <t>H129</t>
   </si>
   <si>
-    <t>M112</t>
-  </si>
-  <si>
     <t>Roxburgh Park Household</t>
   </si>
   <si>
@@ -922,7 +898,130 @@
     <t>Under Investigation</t>
   </si>
   <si>
-    <t>St Kilda East Household</t>
+    <t>H175</t>
+  </si>
+  <si>
+    <t>H176</t>
+  </si>
+  <si>
+    <t>H177</t>
+  </si>
+  <si>
+    <t>H178</t>
+  </si>
+  <si>
+    <t>H179</t>
+  </si>
+  <si>
+    <t>H180</t>
+  </si>
+  <si>
+    <t>H181</t>
+  </si>
+  <si>
+    <t>H182</t>
+  </si>
+  <si>
+    <t>H183</t>
+  </si>
+  <si>
+    <t>H184</t>
+  </si>
+  <si>
+    <t>H185</t>
+  </si>
+  <si>
+    <t>H186</t>
+  </si>
+  <si>
+    <t>H187</t>
+  </si>
+  <si>
+    <t>H188</t>
+  </si>
+  <si>
+    <t>H189</t>
+  </si>
+  <si>
+    <t>H190</t>
+  </si>
+  <si>
+    <t>H191</t>
+  </si>
+  <si>
+    <t>H192</t>
+  </si>
+  <si>
+    <t>H193</t>
+  </si>
+  <si>
+    <t>H194</t>
+  </si>
+  <si>
+    <t>H195</t>
+  </si>
+  <si>
+    <t>H196</t>
+  </si>
+  <si>
+    <t>Corpus Christie Primary School</t>
+  </si>
+  <si>
+    <t>Corpus Christie Primary School Close Contacts</t>
+  </si>
+  <si>
+    <t>Engagement party</t>
+  </si>
+  <si>
+    <t>Middle Park Household Close Contacts</t>
+  </si>
+  <si>
+    <t>Altona Household</t>
+  </si>
+  <si>
+    <t>Lygon Household</t>
+  </si>
+  <si>
+    <t>#fbfbfd</t>
+  </si>
+  <si>
+    <t>#f8f7fb</t>
+  </si>
+  <si>
+    <t>#f0f0f8</t>
+  </si>
+  <si>
+    <t>#edecf6</t>
+  </si>
+  <si>
+    <t>#e5e5f2</t>
+  </si>
+  <si>
+    <t>#e2e1f0</t>
+  </si>
+  <si>
+    <t>#dadaec</t>
+  </si>
+  <si>
+    <t>#d7d6eb</t>
+  </si>
+  <si>
+    <t>#cfcfe7</t>
+  </si>
+  <si>
+    <t>#cccbe5</t>
+  </si>
+  <si>
+    <t>#c4c4e1</t>
+  </si>
+  <si>
+    <t>#c1c0df</t>
+  </si>
+  <si>
+    <t>#b9b9dc</t>
+  </si>
+  <si>
+    <t>#b6b6da</t>
   </si>
 </sst>
 </file>
@@ -992,8 +1091,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H185" totalsRowShown="0">
-  <autoFilter ref="A1:H185" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB2E4C1-EF1F-47D8-8095-8C8C1588105E}" name="Table1" displayName="Table1" ref="A1:H207" totalsRowShown="0">
+  <autoFilter ref="A1:H207" xr:uid="{04B6F86E-BDE3-4223-AEB5-1E6D6C1206A7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{92C73F44-32BF-4F77-9C6C-DBA679A95D12}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0B9C3AEB-861A-429B-AA85-697DD13F2B56}" name="Source"/>
@@ -1319,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC615757-1640-4F9B-B0F9-4CDC0596BF20}">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206:F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1367,19 +1466,19 @@
         <v>44413</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1393,19 +1492,19 @@
         <v>44414</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1419,19 +1518,19 @@
         <v>44414</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1445,19 +1544,19 @@
         <v>44414</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1471,19 +1570,19 @@
         <v>44415</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1497,19 +1596,19 @@
         <v>44415</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -1523,19 +1622,19 @@
         <v>44415</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1549,19 +1648,19 @@
         <v>44415</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -1575,19 +1674,19 @@
         <v>44413</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -1601,19 +1700,19 @@
         <v>44413</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -1627,19 +1726,19 @@
         <v>44414</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -1653,19 +1752,19 @@
         <v>44414</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -1679,19 +1778,19 @@
         <v>44414</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -1705,19 +1804,19 @@
         <v>44415</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -1731,19 +1830,19 @@
         <v>44415</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1757,19 +1856,19 @@
         <v>44415</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1789,13 +1888,13 @@
         <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -1815,13 +1914,13 @@
         <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1835,19 +1934,19 @@
         <v>44415</v>
       </c>
       <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1861,19 +1960,19 @@
         <v>44415</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1887,19 +1986,19 @@
         <v>44415</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1913,19 +2012,19 @@
         <v>44415</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1939,19 +2038,19 @@
         <v>44415</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
         <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1965,19 +2064,19 @@
         <v>44415</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1991,19 +2090,19 @@
         <v>44415</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -2017,19 +2116,19 @@
         <v>44415</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -2043,19 +2142,19 @@
         <v>44415</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -2069,19 +2168,19 @@
         <v>44415</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -2095,19 +2194,19 @@
         <v>44415</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -2121,19 +2220,19 @@
         <v>44415</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -2147,19 +2246,19 @@
         <v>44415</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -2173,19 +2272,19 @@
         <v>44415</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -2199,19 +2298,19 @@
         <v>44415</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -2225,19 +2324,19 @@
         <v>44415</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -2251,19 +2350,19 @@
         <v>44415</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
         <v>89</v>
       </c>
-      <c r="D36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" t="s">
-        <v>96</v>
-      </c>
       <c r="F36" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -2277,19 +2376,19 @@
         <v>44415</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -2303,19 +2402,19 @@
         <v>44415</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -2329,19 +2428,19 @@
         <v>44415</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -2355,19 +2454,19 @@
         <v>44416</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -2381,19 +2480,19 @@
         <v>44416</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -2407,19 +2506,19 @@
         <v>44416</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -2433,19 +2532,19 @@
         <v>44416</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -2459,19 +2558,19 @@
         <v>44416</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -2485,19 +2584,19 @@
         <v>44416</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F45" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -2511,19 +2610,19 @@
         <v>44416</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -2537,19 +2636,19 @@
         <v>44416</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -2566,16 +2665,16 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -2592,16 +2691,16 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -2618,16 +2717,16 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G50" t="s">
         <v>10</v>
@@ -2641,19 +2740,19 @@
         <v>44417</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>
@@ -2667,19 +2766,19 @@
         <v>44417</v>
       </c>
       <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
         <v>121</v>
       </c>
-      <c r="C52" t="s">
-        <v>128</v>
-      </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G52" t="s">
         <v>10</v>
@@ -2693,19 +2792,19 @@
         <v>44417</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G53" t="s">
         <v>10</v>
@@ -2719,19 +2818,19 @@
         <v>44417</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G54" t="s">
         <v>10</v>
@@ -2745,19 +2844,19 @@
         <v>44417</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G55" t="s">
         <v>10</v>
@@ -2771,19 +2870,19 @@
         <v>44417</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G56" t="s">
         <v>10</v>
@@ -2797,19 +2896,19 @@
         <v>44417</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G57" t="s">
         <v>10</v>
@@ -2823,19 +2922,19 @@
         <v>44417</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F58" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s">
         <v>10</v>
@@ -2849,19 +2948,19 @@
         <v>44417</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s">
         <v>10</v>
@@ -2875,19 +2974,19 @@
         <v>44417</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s">
         <v>10</v>
@@ -2901,19 +3000,19 @@
         <v>44417</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s">
         <v>10</v>
@@ -2927,19 +3026,19 @@
         <v>44418</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G62" t="s">
         <v>10</v>
@@ -2953,19 +3052,19 @@
         <v>44418</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D63" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G63" t="s">
         <v>10</v>
@@ -2979,19 +3078,19 @@
         <v>44418</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G64" t="s">
         <v>10</v>
@@ -3005,19 +3104,19 @@
         <v>44418</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G65" t="s">
         <v>10</v>
@@ -3031,19 +3130,19 @@
         <v>44418</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G66" t="s">
         <v>10</v>
@@ -3057,19 +3156,19 @@
         <v>44418</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G67" t="s">
         <v>10</v>
@@ -3083,19 +3182,19 @@
         <v>44418</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F68" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G68" t="s">
         <v>10</v>
@@ -3109,19 +3208,19 @@
         <v>44418</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F69" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G69" t="s">
         <v>10</v>
@@ -3135,19 +3234,19 @@
         <v>44418</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F70" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G70" t="s">
         <v>10</v>
@@ -3161,19 +3260,19 @@
         <v>44418</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F71" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G71" t="s">
         <v>10</v>
@@ -3187,19 +3286,19 @@
         <v>44418</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s">
         <v>10</v>
@@ -3213,19 +3312,19 @@
         <v>44418</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F73" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
@@ -3239,19 +3338,19 @@
         <v>44418</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F74" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G74" t="s">
         <v>10</v>
@@ -3265,19 +3364,19 @@
         <v>44418</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F75" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G75" t="s">
         <v>10</v>
@@ -3291,19 +3390,19 @@
         <v>44418</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F76" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G76" t="s">
         <v>10</v>
@@ -3317,19 +3416,19 @@
         <v>44418</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E77" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F77" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G77" t="s">
         <v>10</v>
@@ -3343,19 +3442,19 @@
         <v>44418</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D78" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s">
         <v>10</v>
@@ -3369,19 +3468,19 @@
         <v>44418</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D79" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E79" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F79" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s">
         <v>10</v>
@@ -3395,19 +3494,19 @@
         <v>44418</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G80" t="s">
         <v>10</v>
@@ -3421,19 +3520,19 @@
         <v>44418</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E81" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F81" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
@@ -3447,19 +3546,19 @@
         <v>44419</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E82" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G82" t="s">
         <v>10</v>
@@ -3473,19 +3572,19 @@
         <v>44419</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E83" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G83" t="s">
         <v>10</v>
@@ -3499,19 +3598,19 @@
         <v>44419</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E84" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G84" t="s">
         <v>10</v>
@@ -3525,19 +3624,19 @@
         <v>44419</v>
       </c>
       <c r="B85" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D85" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E85" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G85" t="s">
         <v>10</v>
@@ -3551,19 +3650,19 @@
         <v>44419</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D86" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E86" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G86" t="s">
         <v>10</v>
@@ -3577,19 +3676,19 @@
         <v>44419</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D87" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E87" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G87" t="s">
         <v>10</v>
@@ -3603,19 +3702,19 @@
         <v>44419</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D88" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E88" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F88" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G88" t="s">
         <v>10</v>
@@ -3629,19 +3728,19 @@
         <v>44419</v>
       </c>
       <c r="B89" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D89" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E89" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G89" t="s">
         <v>10</v>
@@ -3655,19 +3754,19 @@
         <v>44419</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E90" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F90" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G90" t="s">
         <v>10</v>
@@ -3681,19 +3780,19 @@
         <v>44419</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D91" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E91" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F91" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G91" t="s">
         <v>10</v>
@@ -3707,19 +3806,19 @@
         <v>44419</v>
       </c>
       <c r="B92" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E92" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G92" t="s">
         <v>10</v>
@@ -3733,19 +3832,19 @@
         <v>44419</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D93" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G93" t="s">
         <v>10</v>
@@ -3759,19 +3858,19 @@
         <v>44419</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D94" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G94" t="s">
         <v>10</v>
@@ -3785,19 +3884,19 @@
         <v>44419</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C95" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D95" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G95" t="s">
         <v>10</v>
@@ -3811,19 +3910,19 @@
         <v>44419</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D96" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F96" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G96" t="s">
         <v>10</v>
@@ -3840,16 +3939,16 @@
         <v>49</v>
       </c>
       <c r="C97" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D97" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E97" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
@@ -3866,16 +3965,16 @@
         <v>51</v>
       </c>
       <c r="C98" t="s">
+        <v>174</v>
+      </c>
+      <c r="D98" t="s">
+        <v>65</v>
+      </c>
+      <c r="E98" t="s">
+        <v>89</v>
+      </c>
+      <c r="F98" t="s">
         <v>181</v>
-      </c>
-      <c r="D98" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" t="s">
-        <v>96</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="s">
         <v>10</v>
@@ -3892,16 +3991,16 @@
         <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E99" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G99" t="s">
         <v>10</v>
@@ -3918,16 +4017,16 @@
         <v>53</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D100" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E100" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G100" t="s">
         <v>10</v>
@@ -3944,16 +4043,16 @@
         <v>54</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E101" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G101" t="s">
         <v>10</v>
@@ -3967,19 +4066,19 @@
         <v>44420</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E102" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F102" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s">
         <v>10</v>
@@ -3993,19 +4092,19 @@
         <v>44420</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E103" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F103" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G103" t="s">
         <v>10</v>
@@ -4019,19 +4118,19 @@
         <v>44420</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E104" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F104" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G104" t="s">
         <v>10</v>
@@ -4045,19 +4144,19 @@
         <v>44420</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C105" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E105" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F105" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G105" t="s">
         <v>10</v>
@@ -4071,19 +4170,19 @@
         <v>44420</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E106" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F106" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G106" t="s">
         <v>10</v>
@@ -4097,19 +4196,19 @@
         <v>44420</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C107" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F107" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G107" t="s">
         <v>10</v>
@@ -4123,19 +4222,19 @@
         <v>44420</v>
       </c>
       <c r="B108" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D108" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E108" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F108" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G108" t="s">
         <v>10</v>
@@ -4149,19 +4248,19 @@
         <v>44420</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C109" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D109" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E109" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F109" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G109" t="s">
         <v>10</v>
@@ -4175,19 +4274,19 @@
         <v>44420</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C110" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D110" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E110" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F110" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G110" t="s">
         <v>10</v>
@@ -4204,16 +4303,16 @@
         <v>55</v>
       </c>
       <c r="C111" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D111" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E111" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F111" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G111" t="s">
         <v>10</v>
@@ -4227,19 +4326,19 @@
         <v>44420</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D112" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E112" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F112" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G112" t="s">
         <v>10</v>
@@ -4253,19 +4352,19 @@
         <v>44420</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D113" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E113" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F113" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G113" t="s">
         <v>10</v>
@@ -4279,19 +4378,19 @@
         <v>44420</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E114" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F114" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G114" t="s">
         <v>10</v>
@@ -4305,19 +4404,19 @@
         <v>44420</v>
       </c>
       <c r="B115" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C115" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D115" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E115" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F115" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G115" t="s">
         <v>10</v>
@@ -4331,19 +4430,19 @@
         <v>44420</v>
       </c>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D116" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E116" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F116" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G116" t="s">
         <v>10</v>
@@ -4357,19 +4456,19 @@
         <v>44420</v>
       </c>
       <c r="B117" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C117" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D117" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E117" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G117" t="s">
         <v>10</v>
@@ -4383,19 +4482,19 @@
         <v>44420</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C118" t="s">
+        <v>198</v>
+      </c>
+      <c r="D118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E118" t="s">
+        <v>88</v>
+      </c>
+      <c r="F118" t="s">
         <v>205</v>
-      </c>
-      <c r="D118" t="s">
-        <v>72</v>
-      </c>
-      <c r="E118" t="s">
-        <v>95</v>
-      </c>
-      <c r="F118" t="s">
-        <v>212</v>
       </c>
       <c r="G118" t="s">
         <v>10</v>
@@ -4409,19 +4508,19 @@
         <v>44420</v>
       </c>
       <c r="B119" t="s">
+        <v>199</v>
+      </c>
+      <c r="C119" t="s">
+        <v>199</v>
+      </c>
+      <c r="D119" t="s">
+        <v>286</v>
+      </c>
+      <c r="E119" t="s">
         <v>206</v>
       </c>
-      <c r="C119" t="s">
+      <c r="F119" t="s">
         <v>206</v>
-      </c>
-      <c r="D119" t="s">
-        <v>294</v>
-      </c>
-      <c r="E119" t="s">
-        <v>213</v>
-      </c>
-      <c r="F119" t="s">
-        <v>213</v>
       </c>
       <c r="G119" t="s">
         <v>10</v>
@@ -4435,19 +4534,19 @@
         <v>44420</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C120" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D120" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E120" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="F120" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="G120" t="s">
         <v>10</v>
@@ -4461,19 +4560,19 @@
         <v>44420</v>
       </c>
       <c r="B121" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D121" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E121" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="F121" t="s">
-        <v>214</v>
+        <v>310</v>
       </c>
       <c r="G121" t="s">
         <v>10</v>
@@ -4487,19 +4586,19 @@
         <v>44420</v>
       </c>
       <c r="B122" t="s">
+        <v>200</v>
+      </c>
+      <c r="C122" t="s">
+        <v>202</v>
+      </c>
+      <c r="D122" t="s">
+        <v>281</v>
+      </c>
+      <c r="E122" t="s">
         <v>207</v>
       </c>
-      <c r="C122" t="s">
-        <v>209</v>
-      </c>
-      <c r="D122" t="s">
-        <v>289</v>
-      </c>
-      <c r="E122" t="s">
-        <v>214</v>
-      </c>
       <c r="F122" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G122" t="s">
         <v>10</v>
@@ -4513,19 +4612,19 @@
         <v>44420</v>
       </c>
       <c r="B123" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C123" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D123" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E123" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F123" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G123" t="s">
         <v>10</v>
@@ -4539,19 +4638,19 @@
         <v>44420</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C124" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D124" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E124" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F124" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G124" t="s">
         <v>10</v>
@@ -4568,16 +4667,16 @@
         <v>56</v>
       </c>
       <c r="C125" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D125" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E125" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F125" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G125" t="s">
         <v>10</v>
@@ -4591,19 +4690,19 @@
         <v>44421</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C126" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D126" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E126" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F126" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G126" t="s">
         <v>10</v>
@@ -4617,19 +4716,19 @@
         <v>44421</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C127" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D127" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E127" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F127" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G127" t="s">
         <v>10</v>
@@ -4643,19 +4742,19 @@
         <v>44421</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C128" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D128" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E128" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F128" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G128" t="s">
         <v>10</v>
@@ -4669,19 +4768,19 @@
         <v>44421</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D129" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E129" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F129" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G129" t="s">
         <v>10</v>
@@ -4695,19 +4794,19 @@
         <v>44421</v>
       </c>
       <c r="B130" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C130" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D130" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E130" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F130" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G130" t="s">
         <v>10</v>
@@ -4724,16 +4823,16 @@
         <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D131" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E131" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F131" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G131" t="s">
         <v>10</v>
@@ -4747,19 +4846,19 @@
         <v>44421</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C132" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D132" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E132" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F132" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G132" t="s">
         <v>10</v>
@@ -4773,19 +4872,19 @@
         <v>44421</v>
       </c>
       <c r="B133" t="s">
+        <v>199</v>
+      </c>
+      <c r="C133" t="s">
+        <v>219</v>
+      </c>
+      <c r="D133" t="s">
+        <v>286</v>
+      </c>
+      <c r="E133" t="s">
         <v>206</v>
       </c>
-      <c r="C133" t="s">
-        <v>226</v>
-      </c>
-      <c r="D133" t="s">
-        <v>294</v>
-      </c>
-      <c r="E133" t="s">
-        <v>213</v>
-      </c>
       <c r="F133" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G133" t="s">
         <v>10</v>
@@ -4799,19 +4898,19 @@
         <v>44421</v>
       </c>
       <c r="B134" t="s">
+        <v>222</v>
+      </c>
+      <c r="C134" t="s">
+        <v>220</v>
+      </c>
+      <c r="D134" t="s">
+        <v>281</v>
+      </c>
+      <c r="E134" t="s">
+        <v>228</v>
+      </c>
+      <c r="F134" t="s">
         <v>229</v>
-      </c>
-      <c r="C134" t="s">
-        <v>227</v>
-      </c>
-      <c r="D134" t="s">
-        <v>289</v>
-      </c>
-      <c r="E134" t="s">
-        <v>236</v>
-      </c>
-      <c r="F134" t="s">
-        <v>237</v>
       </c>
       <c r="G134" t="s">
         <v>10</v>
@@ -4825,19 +4924,19 @@
         <v>44421</v>
       </c>
       <c r="B135" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C135" t="s">
+        <v>221</v>
+      </c>
+      <c r="D135" t="s">
+        <v>281</v>
+      </c>
+      <c r="E135" t="s">
         <v>228</v>
       </c>
-      <c r="D135" t="s">
-        <v>289</v>
-      </c>
-      <c r="E135" t="s">
-        <v>236</v>
-      </c>
       <c r="F135" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G135" t="s">
         <v>10</v>
@@ -4851,19 +4950,19 @@
         <v>44421</v>
       </c>
       <c r="B136" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="C136" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D136" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E136" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="F136" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="G136" t="s">
         <v>10</v>
@@ -4877,19 +4976,19 @@
         <v>44421</v>
       </c>
       <c r="B137" t="s">
+        <v>223</v>
+      </c>
+      <c r="C137" t="s">
+        <v>223</v>
+      </c>
+      <c r="D137" t="s">
+        <v>286</v>
+      </c>
+      <c r="E137" t="s">
         <v>230</v>
       </c>
-      <c r="C137" t="s">
+      <c r="F137" t="s">
         <v>230</v>
-      </c>
-      <c r="D137" t="s">
-        <v>294</v>
-      </c>
-      <c r="E137" t="s">
-        <v>238</v>
-      </c>
-      <c r="F137" t="s">
-        <v>238</v>
       </c>
       <c r="G137" t="s">
         <v>10</v>
@@ -4903,19 +5002,19 @@
         <v>44421</v>
       </c>
       <c r="B138" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C138" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D138" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E138" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F138" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G138" t="s">
         <v>10</v>
@@ -4929,19 +5028,19 @@
         <v>44421</v>
       </c>
       <c r="B139" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C139" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D139" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E139" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F139" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G139" t="s">
         <v>10</v>
@@ -4955,19 +5054,19 @@
         <v>44422</v>
       </c>
       <c r="B140" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C140" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D140" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E140" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G140" t="s">
         <v>10</v>
@@ -4981,19 +5080,19 @@
         <v>44422</v>
       </c>
       <c r="B141" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C141" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D141" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E141" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F141" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G141" t="s">
         <v>10</v>
@@ -5007,19 +5106,19 @@
         <v>44422</v>
       </c>
       <c r="B142" t="s">
+        <v>226</v>
+      </c>
+      <c r="C142" t="s">
         <v>233</v>
       </c>
-      <c r="C142" t="s">
-        <v>241</v>
-      </c>
       <c r="D142" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E142" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F142" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G142" t="s">
         <v>10</v>
@@ -5033,19 +5132,19 @@
         <v>44422</v>
       </c>
       <c r="B143" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C143" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D143" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E143" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G143" t="s">
         <v>10</v>
@@ -5059,19 +5158,19 @@
         <v>44422</v>
       </c>
       <c r="B144" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C144" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D144" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E144" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F144" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G144" t="s">
         <v>10</v>
@@ -5085,19 +5184,19 @@
         <v>44422</v>
       </c>
       <c r="B145" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C145" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D145" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E145" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F145" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G145" t="s">
         <v>10</v>
@@ -5111,19 +5210,19 @@
         <v>44422</v>
       </c>
       <c r="B146" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C146" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D146" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E146" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F146" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G146" t="s">
         <v>10</v>
@@ -5137,19 +5236,19 @@
         <v>44422</v>
       </c>
       <c r="B147" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C147" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D147" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E147" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F147" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G147" t="s">
         <v>10</v>
@@ -5163,19 +5262,19 @@
         <v>44422</v>
       </c>
       <c r="B148" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C148" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D148" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E148" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F148" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G148" t="s">
         <v>10</v>
@@ -5189,19 +5288,19 @@
         <v>44422</v>
       </c>
       <c r="B149" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C149" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D149" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E149" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F149" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G149" t="s">
         <v>10</v>
@@ -5215,19 +5314,19 @@
         <v>44422</v>
       </c>
       <c r="B150" t="s">
+        <v>222</v>
+      </c>
+      <c r="C150" t="s">
+        <v>241</v>
+      </c>
+      <c r="D150" t="s">
+        <v>281</v>
+      </c>
+      <c r="E150" t="s">
+        <v>228</v>
+      </c>
+      <c r="F150" t="s">
         <v>229</v>
-      </c>
-      <c r="C150" t="s">
-        <v>249</v>
-      </c>
-      <c r="D150" t="s">
-        <v>289</v>
-      </c>
-      <c r="E150" t="s">
-        <v>236</v>
-      </c>
-      <c r="F150" t="s">
-        <v>237</v>
       </c>
       <c r="G150" t="s">
         <v>10</v>
@@ -5241,19 +5340,19 @@
         <v>44422</v>
       </c>
       <c r="B151" t="s">
+        <v>222</v>
+      </c>
+      <c r="C151" t="s">
+        <v>242</v>
+      </c>
+      <c r="D151" t="s">
+        <v>281</v>
+      </c>
+      <c r="E151" t="s">
+        <v>228</v>
+      </c>
+      <c r="F151" t="s">
         <v>229</v>
-      </c>
-      <c r="C151" t="s">
-        <v>250</v>
-      </c>
-      <c r="D151" t="s">
-        <v>289</v>
-      </c>
-      <c r="E151" t="s">
-        <v>236</v>
-      </c>
-      <c r="F151" t="s">
-        <v>237</v>
       </c>
       <c r="G151" t="s">
         <v>10</v>
@@ -5267,19 +5366,19 @@
         <v>44422</v>
       </c>
       <c r="B152" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C152" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D152" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E152" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F152" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G152" t="s">
         <v>10</v>
@@ -5293,19 +5392,19 @@
         <v>44422</v>
       </c>
       <c r="B153" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" t="s">
+        <v>244</v>
+      </c>
+      <c r="D153" t="s">
+        <v>281</v>
+      </c>
+      <c r="E153" t="s">
         <v>228</v>
       </c>
-      <c r="C153" t="s">
-        <v>252</v>
-      </c>
-      <c r="D153" t="s">
-        <v>289</v>
-      </c>
-      <c r="E153" t="s">
-        <v>236</v>
-      </c>
       <c r="F153" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G153" t="s">
         <v>10</v>
@@ -5319,19 +5418,19 @@
         <v>44422</v>
       </c>
       <c r="B154" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C154" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D154" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E154" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F154" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G154" t="s">
         <v>10</v>
@@ -5345,19 +5444,19 @@
         <v>44422</v>
       </c>
       <c r="B155" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C155" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D155" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E155" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F155" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G155" t="s">
         <v>10</v>
@@ -5371,19 +5470,19 @@
         <v>44422</v>
       </c>
       <c r="B156" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C156" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D156" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E156" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F156" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G156" t="s">
         <v>10</v>
@@ -5397,19 +5496,19 @@
         <v>44422</v>
       </c>
       <c r="B157" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C157" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D157" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E157" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F157" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G157" t="s">
         <v>10</v>
@@ -5423,19 +5522,19 @@
         <v>44422</v>
       </c>
       <c r="B158" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C158" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D158" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E158" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F158" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G158" t="s">
         <v>10</v>
@@ -5449,19 +5548,19 @@
         <v>44422</v>
       </c>
       <c r="B159" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C159" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E159" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F159" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G159" t="s">
         <v>10</v>
@@ -5478,16 +5577,16 @@
         <v>44</v>
       </c>
       <c r="C160" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D160" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E160" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F160" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G160" t="s">
         <v>10</v>
@@ -5501,19 +5600,19 @@
         <v>44423</v>
       </c>
       <c r="B161" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C161" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D161" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E161" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F161" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G161" t="s">
         <v>10</v>
@@ -5527,19 +5626,19 @@
         <v>44423</v>
       </c>
       <c r="B162" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C162" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D162" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E162" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F162" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G162" t="s">
         <v>10</v>
@@ -5553,19 +5652,19 @@
         <v>44423</v>
       </c>
       <c r="B163" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C163" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D163" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E163" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F163" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G163" t="s">
         <v>10</v>
@@ -5579,19 +5678,19 @@
         <v>44423</v>
       </c>
       <c r="B164" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C164" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D164" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E164" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F164" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G164" t="s">
         <v>10</v>
@@ -5605,19 +5704,19 @@
         <v>44423</v>
       </c>
       <c r="B165" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C165" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D165" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E165" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F165" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G165" t="s">
         <v>10</v>
@@ -5631,19 +5730,19 @@
         <v>44423</v>
       </c>
       <c r="B166" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C166" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D166" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E166" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F166" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G166" t="s">
         <v>10</v>
@@ -5657,19 +5756,19 @@
         <v>44423</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C167" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D167" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E167" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F167" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G167" t="s">
         <v>10</v>
@@ -5683,19 +5782,19 @@
         <v>44423</v>
       </c>
       <c r="B168" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C168" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D168" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E168" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F168" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G168" t="s">
         <v>10</v>
@@ -5709,19 +5808,19 @@
         <v>44423</v>
       </c>
       <c r="B169" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C169" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D169" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E169" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F169" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G169" t="s">
         <v>10</v>
@@ -5735,19 +5834,19 @@
         <v>44423</v>
       </c>
       <c r="B170" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C170" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D170" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E170" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F170" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G170" t="s">
         <v>10</v>
@@ -5761,19 +5860,19 @@
         <v>44423</v>
       </c>
       <c r="B171" t="s">
+        <v>241</v>
+      </c>
+      <c r="C171" t="s">
+        <v>266</v>
+      </c>
+      <c r="D171" t="s">
+        <v>281</v>
+      </c>
+      <c r="E171" t="s">
+        <v>228</v>
+      </c>
+      <c r="F171" t="s">
         <v>229</v>
-      </c>
-      <c r="C171" t="s">
-        <v>274</v>
-      </c>
-      <c r="D171" t="s">
-        <v>289</v>
-      </c>
-      <c r="E171" t="s">
-        <v>236</v>
-      </c>
-      <c r="F171" t="s">
-        <v>237</v>
       </c>
       <c r="G171" t="s">
         <v>10</v>
@@ -5787,19 +5886,19 @@
         <v>44423</v>
       </c>
       <c r="B172" t="s">
+        <v>241</v>
+      </c>
+      <c r="C172" t="s">
+        <v>267</v>
+      </c>
+      <c r="D172" t="s">
+        <v>281</v>
+      </c>
+      <c r="E172" t="s">
+        <v>228</v>
+      </c>
+      <c r="F172" t="s">
         <v>229</v>
-      </c>
-      <c r="C172" t="s">
-        <v>275</v>
-      </c>
-      <c r="D172" t="s">
-        <v>289</v>
-      </c>
-      <c r="E172" t="s">
-        <v>236</v>
-      </c>
-      <c r="F172" t="s">
-        <v>237</v>
       </c>
       <c r="G172" t="s">
         <v>10</v>
@@ -5813,19 +5912,19 @@
         <v>44423</v>
       </c>
       <c r="B173" t="s">
+        <v>241</v>
+      </c>
+      <c r="C173" t="s">
+        <v>268</v>
+      </c>
+      <c r="D173" t="s">
+        <v>281</v>
+      </c>
+      <c r="E173" t="s">
+        <v>228</v>
+      </c>
+      <c r="F173" t="s">
         <v>229</v>
-      </c>
-      <c r="C173" t="s">
-        <v>276</v>
-      </c>
-      <c r="D173" t="s">
-        <v>289</v>
-      </c>
-      <c r="E173" t="s">
-        <v>236</v>
-      </c>
-      <c r="F173" t="s">
-        <v>237</v>
       </c>
       <c r="G173" t="s">
         <v>10</v>
@@ -5839,19 +5938,19 @@
         <v>44423</v>
       </c>
       <c r="B174" t="s">
+        <v>241</v>
+      </c>
+      <c r="C174" t="s">
+        <v>269</v>
+      </c>
+      <c r="D174" t="s">
+        <v>281</v>
+      </c>
+      <c r="E174" t="s">
+        <v>228</v>
+      </c>
+      <c r="F174" t="s">
         <v>229</v>
-      </c>
-      <c r="C174" t="s">
-        <v>277</v>
-      </c>
-      <c r="D174" t="s">
-        <v>289</v>
-      </c>
-      <c r="E174" t="s">
-        <v>236</v>
-      </c>
-      <c r="F174" t="s">
-        <v>237</v>
       </c>
       <c r="G174" t="s">
         <v>10</v>
@@ -5865,19 +5964,19 @@
         <v>44423</v>
       </c>
       <c r="B175" t="s">
+        <v>241</v>
+      </c>
+      <c r="C175" t="s">
+        <v>270</v>
+      </c>
+      <c r="D175" t="s">
+        <v>281</v>
+      </c>
+      <c r="E175" t="s">
+        <v>228</v>
+      </c>
+      <c r="F175" t="s">
         <v>229</v>
-      </c>
-      <c r="C175" t="s">
-        <v>278</v>
-      </c>
-      <c r="D175" t="s">
-        <v>289</v>
-      </c>
-      <c r="E175" t="s">
-        <v>236</v>
-      </c>
-      <c r="F175" t="s">
-        <v>237</v>
       </c>
       <c r="G175" t="s">
         <v>10</v>
@@ -5891,19 +5990,19 @@
         <v>44423</v>
       </c>
       <c r="B176" t="s">
+        <v>241</v>
+      </c>
+      <c r="C176" t="s">
+        <v>271</v>
+      </c>
+      <c r="D176" t="s">
+        <v>281</v>
+      </c>
+      <c r="E176" t="s">
+        <v>228</v>
+      </c>
+      <c r="F176" t="s">
         <v>229</v>
-      </c>
-      <c r="C176" t="s">
-        <v>279</v>
-      </c>
-      <c r="D176" t="s">
-        <v>289</v>
-      </c>
-      <c r="E176" t="s">
-        <v>236</v>
-      </c>
-      <c r="F176" t="s">
-        <v>237</v>
       </c>
       <c r="G176" t="s">
         <v>10</v>
@@ -5917,19 +6016,19 @@
         <v>44423</v>
       </c>
       <c r="B177" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C177" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D177" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E177" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F177" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G177" t="s">
         <v>10</v>
@@ -5943,25 +6042,25 @@
         <v>44423</v>
       </c>
       <c r="B178" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C178" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D178" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E178" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F178" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G178" t="s">
         <v>10</v>
       </c>
       <c r="H178" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.45">
@@ -5969,19 +6068,19 @@
         <v>44423</v>
       </c>
       <c r="B179" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C179" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D179" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E179" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F179" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G179" t="s">
         <v>10</v>
@@ -5995,19 +6094,19 @@
         <v>44423</v>
       </c>
       <c r="B180" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C180" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D180" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E180" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F180" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G180" t="s">
         <v>10</v>
@@ -6021,19 +6120,19 @@
         <v>44423</v>
       </c>
       <c r="B181" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C181" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D181" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E181" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F181" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G181" t="s">
         <v>10</v>
@@ -6047,19 +6146,19 @@
         <v>44423</v>
       </c>
       <c r="B182" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C182" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D182" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E182" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F182" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G182" t="s">
         <v>10</v>
@@ -6073,19 +6172,19 @@
         <v>44423</v>
       </c>
       <c r="B183" t="s">
+        <v>278</v>
+      </c>
+      <c r="C183" t="s">
+        <v>278</v>
+      </c>
+      <c r="D183" t="s">
         <v>286</v>
       </c>
-      <c r="C183" t="s">
-        <v>286</v>
-      </c>
-      <c r="D183" t="s">
-        <v>294</v>
-      </c>
       <c r="E183" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F183" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G183" t="s">
         <v>10</v>
@@ -6099,19 +6198,19 @@
         <v>44423</v>
       </c>
       <c r="B184" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C184" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D184" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E184" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F184" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G184" t="s">
         <v>10</v>
@@ -6125,24 +6224,596 @@
         <v>44423</v>
       </c>
       <c r="B185" t="s">
+        <v>279</v>
+      </c>
+      <c r="C185" t="s">
+        <v>280</v>
+      </c>
+      <c r="D185" t="s">
+        <v>286</v>
+      </c>
+      <c r="E185" t="s">
+        <v>311</v>
+      </c>
+      <c r="F185" t="s">
+        <v>311</v>
+      </c>
+      <c r="G185" t="s">
+        <v>10</v>
+      </c>
+      <c r="H185" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A186" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B186" t="s">
+        <v>280</v>
+      </c>
+      <c r="C186" t="s">
         <v>287</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D186" t="s">
+        <v>286</v>
+      </c>
+      <c r="E186" t="s">
+        <v>311</v>
+      </c>
+      <c r="F186" t="s">
+        <v>311</v>
+      </c>
+      <c r="G186" t="s">
+        <v>10</v>
+      </c>
+      <c r="H186" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A187" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B187" t="s">
+        <v>214</v>
+      </c>
+      <c r="C187" t="s">
         <v>288</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D187" t="s">
+        <v>65</v>
+      </c>
+      <c r="E187" t="s">
+        <v>89</v>
+      </c>
+      <c r="F187" t="s">
+        <v>181</v>
+      </c>
+      <c r="G187" t="s">
+        <v>10</v>
+      </c>
+      <c r="H187" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A188" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B188" t="s">
+        <v>214</v>
+      </c>
+      <c r="C188" t="s">
+        <v>289</v>
+      </c>
+      <c r="D188" t="s">
+        <v>65</v>
+      </c>
+      <c r="E188" t="s">
+        <v>89</v>
+      </c>
+      <c r="F188" t="s">
+        <v>181</v>
+      </c>
+      <c r="G188" t="s">
+        <v>10</v>
+      </c>
+      <c r="H188" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A189" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B189" t="s">
+        <v>214</v>
+      </c>
+      <c r="C189" t="s">
+        <v>290</v>
+      </c>
+      <c r="D189" t="s">
+        <v>65</v>
+      </c>
+      <c r="E189" t="s">
+        <v>89</v>
+      </c>
+      <c r="F189" t="s">
+        <v>181</v>
+      </c>
+      <c r="G189" t="s">
+        <v>10</v>
+      </c>
+      <c r="H189" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A190" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B190" t="s">
+        <v>214</v>
+      </c>
+      <c r="C190" t="s">
+        <v>291</v>
+      </c>
+      <c r="D190" t="s">
+        <v>65</v>
+      </c>
+      <c r="E190" t="s">
+        <v>89</v>
+      </c>
+      <c r="F190" t="s">
+        <v>181</v>
+      </c>
+      <c r="G190" t="s">
+        <v>10</v>
+      </c>
+      <c r="H190" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A191" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B191" t="s">
+        <v>247</v>
+      </c>
+      <c r="C191" t="s">
+        <v>292</v>
+      </c>
+      <c r="D191" t="s">
+        <v>65</v>
+      </c>
+      <c r="E191" t="s">
+        <v>89</v>
+      </c>
+      <c r="F191" t="s">
+        <v>181</v>
+      </c>
+      <c r="G191" t="s">
+        <v>10</v>
+      </c>
+      <c r="H191" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A192" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B192" t="s">
+        <v>247</v>
+      </c>
+      <c r="C192" t="s">
+        <v>293</v>
+      </c>
+      <c r="D192" t="s">
+        <v>65</v>
+      </c>
+      <c r="E192" t="s">
+        <v>89</v>
+      </c>
+      <c r="F192" t="s">
+        <v>181</v>
+      </c>
+      <c r="G192" t="s">
+        <v>10</v>
+      </c>
+      <c r="H192" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A193" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B193" t="s">
+        <v>247</v>
+      </c>
+      <c r="C193" t="s">
         <v>294</v>
       </c>
-      <c r="E185" t="s">
+      <c r="D193" t="s">
+        <v>65</v>
+      </c>
+      <c r="E193" t="s">
+        <v>89</v>
+      </c>
+      <c r="F193" t="s">
+        <v>181</v>
+      </c>
+      <c r="G193" t="s">
+        <v>10</v>
+      </c>
+      <c r="H193" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A194" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B194" t="s">
+        <v>246</v>
+      </c>
+      <c r="C194" t="s">
         <v>295</v>
       </c>
-      <c r="F185" t="s">
-        <v>295</v>
-      </c>
-      <c r="G185" t="s">
-        <v>10</v>
-      </c>
-      <c r="H185" t="s">
+      <c r="D194" t="s">
+        <v>65</v>
+      </c>
+      <c r="E194" t="s">
+        <v>89</v>
+      </c>
+      <c r="F194" t="s">
+        <v>91</v>
+      </c>
+      <c r="G194" t="s">
+        <v>10</v>
+      </c>
+      <c r="H194" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A195" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B195" t="s">
+        <v>246</v>
+      </c>
+      <c r="C195" t="s">
+        <v>296</v>
+      </c>
+      <c r="D195" t="s">
+        <v>65</v>
+      </c>
+      <c r="E195" t="s">
+        <v>89</v>
+      </c>
+      <c r="F195" t="s">
+        <v>91</v>
+      </c>
+      <c r="G195" t="s">
+        <v>10</v>
+      </c>
+      <c r="H195" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A196" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B196" t="s">
+        <v>246</v>
+      </c>
+      <c r="C196" t="s">
+        <v>297</v>
+      </c>
+      <c r="D196" t="s">
+        <v>65</v>
+      </c>
+      <c r="E196" t="s">
+        <v>89</v>
+      </c>
+      <c r="F196" t="s">
+        <v>91</v>
+      </c>
+      <c r="G196" t="s">
+        <v>10</v>
+      </c>
+      <c r="H196" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A197" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B197" t="s">
+        <v>246</v>
+      </c>
+      <c r="C197" t="s">
+        <v>298</v>
+      </c>
+      <c r="D197" t="s">
+        <v>65</v>
+      </c>
+      <c r="E197" t="s">
+        <v>89</v>
+      </c>
+      <c r="F197" t="s">
+        <v>91</v>
+      </c>
+      <c r="G197" t="s">
+        <v>10</v>
+      </c>
+      <c r="H197" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A198" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B198" t="s">
+        <v>142</v>
+      </c>
+      <c r="C198" t="s">
+        <v>299</v>
+      </c>
+      <c r="D198" t="s">
+        <v>65</v>
+      </c>
+      <c r="E198" t="s">
+        <v>88</v>
+      </c>
+      <c r="F198" t="s">
+        <v>205</v>
+      </c>
+      <c r="G198" t="s">
+        <v>10</v>
+      </c>
+      <c r="H198" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A199" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B199" t="s">
+        <v>192</v>
+      </c>
+      <c r="C199" t="s">
+        <v>300</v>
+      </c>
+      <c r="D199" t="s">
+        <v>65</v>
+      </c>
+      <c r="E199" t="s">
+        <v>92</v>
+      </c>
+      <c r="F199" t="s">
+        <v>154</v>
+      </c>
+      <c r="G199" t="s">
+        <v>10</v>
+      </c>
+      <c r="H199" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A200" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B200" t="s">
+        <v>85</v>
+      </c>
+      <c r="C200" t="s">
+        <v>301</v>
+      </c>
+      <c r="D200" t="s">
+        <v>65</v>
+      </c>
+      <c r="E200" t="s">
+        <v>94</v>
+      </c>
+      <c r="F200" t="s">
+        <v>94</v>
+      </c>
+      <c r="G200" t="s">
+        <v>10</v>
+      </c>
+      <c r="H200" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A201" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B201" t="s">
+        <v>220</v>
+      </c>
+      <c r="C201" t="s">
+        <v>302</v>
+      </c>
+      <c r="D201" t="s">
+        <v>281</v>
+      </c>
+      <c r="E201" t="s">
+        <v>228</v>
+      </c>
+      <c r="F201" t="s">
+        <v>229</v>
+      </c>
+      <c r="G201" t="s">
+        <v>10</v>
+      </c>
+      <c r="H201" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A202" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B202" t="s">
+        <v>242</v>
+      </c>
+      <c r="C202" t="s">
+        <v>303</v>
+      </c>
+      <c r="D202" t="s">
+        <v>281</v>
+      </c>
+      <c r="E202" t="s">
+        <v>228</v>
+      </c>
+      <c r="F202" t="s">
+        <v>282</v>
+      </c>
+      <c r="G202" t="s">
+        <v>10</v>
+      </c>
+      <c r="H202" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A203" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B203" t="s">
+        <v>277</v>
+      </c>
+      <c r="C203" t="s">
+        <v>304</v>
+      </c>
+      <c r="D203" t="s">
+        <v>286</v>
+      </c>
+      <c r="E203" t="s">
+        <v>231</v>
+      </c>
+      <c r="F203" t="s">
+        <v>312</v>
+      </c>
+      <c r="G203" t="s">
+        <v>10</v>
+      </c>
+      <c r="H203" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A204" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B204" t="s">
+        <v>305</v>
+      </c>
+      <c r="C204" t="s">
+        <v>305</v>
+      </c>
+      <c r="D204" t="s">
+        <v>65</v>
+      </c>
+      <c r="E204" t="s">
+        <v>313</v>
+      </c>
+      <c r="F204" t="s">
+        <v>313</v>
+      </c>
+      <c r="G204" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A205" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B205" t="s">
+        <v>305</v>
+      </c>
+      <c r="C205" t="s">
+        <v>306</v>
+      </c>
+      <c r="D205" t="s">
+        <v>65</v>
+      </c>
+      <c r="E205" t="s">
+        <v>313</v>
+      </c>
+      <c r="F205" t="s">
+        <v>313</v>
+      </c>
+      <c r="G205" t="s">
+        <v>10</v>
+      </c>
+      <c r="H205" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A206" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B206" t="s">
+        <v>307</v>
+      </c>
+      <c r="C206" t="s">
+        <v>307</v>
+      </c>
+      <c r="D206" t="s">
+        <v>286</v>
+      </c>
+      <c r="E206" t="s">
+        <v>314</v>
+      </c>
+      <c r="F206" t="s">
+        <v>314</v>
+      </c>
+      <c r="G206" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A207" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B207" t="s">
+        <v>307</v>
+      </c>
+      <c r="C207" t="s">
+        <v>308</v>
+      </c>
+      <c r="D207" t="s">
+        <v>286</v>
+      </c>
+      <c r="E207" t="s">
+        <v>314</v>
+      </c>
+      <c r="F207" t="s">
+        <v>314</v>
+      </c>
+      <c r="G207" t="s">
+        <v>10</v>
+      </c>
+      <c r="H207" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6160,8 +6831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19C3E2-9275-44D5-84E3-E42E2D0D4A55}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6193,7 +6864,7 @@
         <v>44413</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -6207,7 +6878,7 @@
         <v>44414</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -6224,7 +6895,7 @@
         <v>44415</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -6241,7 +6912,7 @@
         <v>44416</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>317</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -6258,7 +6929,7 @@
         <v>44417</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -6275,7 +6946,7 @@
         <v>44418</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -6292,7 +6963,7 @@
         <v>44419</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -6309,7 +6980,7 @@
         <v>44420</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>320</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -6326,7 +6997,7 @@
         <v>44421</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -6343,7 +7014,7 @@
         <v>44422</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -6360,7 +7031,7 @@
         <v>44423</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -6377,7 +7048,7 @@
         <v>44424</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -6394,7 +7065,7 @@
         <v>44425</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>323</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -6411,7 +7082,7 @@
         <v>44426</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -6427,6 +7098,9 @@
       <c r="A16" s="1">
         <v>44427</v>
       </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" t="s">
         <v>16</v>
       </c>
@@ -6437,73 +7111,109 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44428</v>
       </c>
+      <c r="B17" t="s">
+        <v>325</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44429</v>
       </c>
+      <c r="B18" t="s">
+        <v>326</v>
+      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>44430</v>
       </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
       <c r="C19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>44431</v>
       </c>
+      <c r="B20" t="s">
+        <v>327</v>
+      </c>
       <c r="C20" t="s">
         <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>44432</v>
       </c>
+      <c r="B21" t="s">
+        <v>328</v>
+      </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>44433</v>
       </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>44434</v>
       </c>
@@ -6513,8 +7223,11 @@
       <c r="D23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>44435</v>
       </c>
@@ -6524,8 +7237,11 @@
       <c r="D24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>44436</v>
       </c>
@@ -6535,118 +7251,160 @@
       <c r="D25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>44437</v>
       </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
       <c r="D26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>44438</v>
       </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
       <c r="D27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>44439</v>
       </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
       <c r="D28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>44440</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>44441</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>44442</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>44443</v>
       </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
       <c r="D32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>44444</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>44445</v>
       </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
       <c r="D34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>44446</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>44447</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>44448</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>44449</v>
       </c>
-      <c r="C38" t="s">
-        <v>39</v>
-      </c>
       <c r="D38" t="s">
         <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
